--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75216.97471122345</v>
+        <v>-84515.89161594129</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.59168271</v>
+        <v>29520662.93214757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.99340739</v>
+        <v>14696419.30559703</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2063404.746503085</v>
+        <v>2278728.634746236</v>
       </c>
     </row>
     <row r="11">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.4268935289279</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>319.245859694846</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T21" t="n">
         <v>128.8768572327044</v>
@@ -2217,7 +2219,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586207</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
         <v>183.4695267241379</v>
@@ -2242,16 +2244,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>264.3954324138166</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>146.6325435271071</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2321,22 +2323,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>31.16496619249474</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>52.83200069764771</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>374.4268935289278</v>
       </c>
       <c r="H26" t="n">
-        <v>2.084178457812012</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W27" t="n">
         <v>183.4695267241379</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>41.26176538196644</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>344.3112028910674</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>378.7606637428541</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T30" t="n">
         <v>128.8768572327044</v>
@@ -2956,13 +2958,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>66.73000702018707</v>
       </c>
       <c r="X31" t="n">
-        <v>169.5802855568755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>202.774355702116</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>174.399342119966</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>84.57525409799902</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>140.1486916695813</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.64660619178001</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>70.80237915323289</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3484,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>305.5961147094268</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>65.1299726723589</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>75.62590992462751</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>146.9681010699558</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>11.01637571230258</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
         <v>41.31829566194965</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>64.58216279976261</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>388.4114697874283</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.4844275987548</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.974446717864</v>
+        <v>645.9611778795814</v>
       </c>
       <c r="C20" t="n">
-        <v>890.3927724551322</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D20" t="n">
-        <v>461.8110981924006</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5780,22 +5782,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>1072.260748364489</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5828,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K21" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L21" t="n">
         <v>1159.957753041174</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.5053801183834</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G22" t="n">
         <v>33.94366860160834</v>
@@ -5908,25 +5910,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>89.90148899448771</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>509.954387939391</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N22" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5941,19 +5943,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U22" t="n">
-        <v>1430.117336733128</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V22" t="n">
-        <v>1143.161828603558</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W22" t="n">
-        <v>871.1354241898498</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X22" t="n">
-        <v>625.7436695232623</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y22" t="n">
-        <v>398.3239988373705</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>751.6554974211238</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C23" t="n">
-        <v>323.0738231583921</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0738231583921</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="E23" t="n">
-        <v>323.0738231583921</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="F23" t="n">
-        <v>323.0738231583921</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G23" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M23" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O23" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P23" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
         <v>1697.183430080417</v>
@@ -6017,22 +6019,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U23" t="n">
-        <v>1134.24202645431</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V23" t="n">
-        <v>771.6250763881362</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W23" t="n">
-        <v>751.6554974211238</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X23" t="n">
-        <v>751.6554974211238</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y23" t="n">
-        <v>751.6554974211238</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L24" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M24" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O24" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C25" t="n">
         <v>33.94366860160834</v>
@@ -6145,52 +6147,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M25" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1451.303983658873</v>
+        <v>1463.158582813435</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.870982911978</v>
+        <v>1184.72558206654</v>
       </c>
       <c r="V25" t="n">
-        <v>885.9154747824084</v>
+        <v>897.7700739369707</v>
       </c>
       <c r="W25" t="n">
-        <v>613.8890703687</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="X25" t="n">
-        <v>368.4973157021125</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.0776450162207</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>866.0284050065428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
-        <v>866.0284050065428</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D26" t="n">
-        <v>866.0284050065428</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="E26" t="n">
-        <v>437.4467307438111</v>
+        <v>840.020081554954</v>
       </c>
       <c r="F26" t="n">
-        <v>437.4467307438111</v>
+        <v>412.1526519641617</v>
       </c>
       <c r="G26" t="n">
-        <v>36.04889936707502</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6224,19 +6226,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6263,13 +6265,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6308,13 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M27" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N27" t="n">
         <v>804.6185656731816</v>
@@ -6321,7 +6323,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="P27" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.5269815952424</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C28" t="n">
-        <v>587.9652700784674</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D28" t="n">
-        <v>422.0872772799901</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E28" t="n">
-        <v>252.3292735307273</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F28" t="n">
-        <v>75.62221949248354</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G28" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H28" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6385,49 +6387,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M28" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N28" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V28" t="n">
-        <v>1697.183430080417</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W28" t="n">
-        <v>1425.157025666709</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X28" t="n">
-        <v>1179.765271000121</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y28" t="n">
-        <v>952.3456003142296</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1134.24202645431</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C29" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D29" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E29" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F29" t="n">
-        <v>705.6603521915781</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6464,49 +6466,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O29" t="n">
-        <v>874.0494664914149</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P29" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V29" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W29" t="n">
-        <v>1134.24202645431</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X29" t="n">
-        <v>1134.24202645431</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="Y29" t="n">
-        <v>1134.24202645431</v>
+        <v>1072.260748364489</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>947.4105542393174</v>
+        <v>943.243825464227</v>
       </c>
       <c r="C31" t="n">
-        <v>774.8488427225424</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D31" t="n">
-        <v>608.9708499240651</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E31" t="n">
-        <v>439.2128461748023</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F31" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G31" t="n">
         <v>262.5057921365585</v>
@@ -6625,13 +6627,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.942061378414</v>
+        <v>1362.482114869106</v>
       </c>
       <c r="X31" t="n">
-        <v>1366.648843644196</v>
+        <v>1362.482114869106</v>
       </c>
       <c r="Y31" t="n">
-        <v>1139.229172958305</v>
+        <v>1135.062444183214</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F32" t="n">
-        <v>724.8884439079882</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G32" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6701,16 +6703,16 @@
         <v>267.8706684926505</v>
       </c>
       <c r="K32" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L32" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M32" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N32" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6725,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y32" t="n">
-        <v>929.7110254252771</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6780,19 +6782,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>947.1238364150125</v>
+        <v>796.3926008656205</v>
       </c>
       <c r="C34" t="n">
-        <v>774.5621248982375</v>
+        <v>623.8308893488454</v>
       </c>
       <c r="D34" t="n">
-        <v>774.5621248982375</v>
+        <v>457.9528965503681</v>
       </c>
       <c r="E34" t="n">
-        <v>604.8041211489747</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="F34" t="n">
-        <v>428.0970671107308</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H34" t="n">
         <v>122.603617826933</v>
@@ -6862,19 +6864,19 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O34" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6883,25 +6885,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1611.753880486479</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U34" t="n">
-        <v>1611.753880486479</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V34" t="n">
-        <v>1611.753880486479</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W34" t="n">
-        <v>1611.753880486479</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="X34" t="n">
-        <v>1366.362125819891</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.942455134</v>
+        <v>972.5535525019498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>603.3754332121797</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C35" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D35" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6938,22 +6940,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L35" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M35" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N35" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O35" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="L35" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1437.961127397434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W35" t="n">
-        <v>1437.961127397434</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X35" t="n">
-        <v>1437.961127397434</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y35" t="n">
-        <v>1029.675003697088</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="36">
@@ -6993,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7002,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7017,19 +7019,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M36" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N36" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O36" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>422.0704516497129</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="C37" t="n">
-        <v>422.0704516497129</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="D37" t="n">
-        <v>422.0704516497129</v>
+        <v>539.8659837422568</v>
       </c>
       <c r="E37" t="n">
-        <v>422.0704516497129</v>
+        <v>539.8659837422568</v>
       </c>
       <c r="F37" t="n">
-        <v>245.3633976114691</v>
+        <v>363.1589297040131</v>
       </c>
       <c r="G37" t="n">
-        <v>245.3633976114691</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H37" t="n">
-        <v>105.4612233018436</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7099,13 +7101,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>761.43086230084</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M37" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N37" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7117,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V37" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W37" t="n">
-        <v>613.8890703687</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X37" t="n">
-        <v>613.8890703687</v>
+        <v>705.7439765407341</v>
       </c>
       <c r="Y37" t="n">
-        <v>613.8890703687</v>
+        <v>705.7439765407341</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.9421322372</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C38" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D38" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E38" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7175,19 +7177,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P38" t="n">
         <v>1107.976466382457</v>
@@ -7199,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W38" t="n">
-        <v>462.9421322372</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X38" t="n">
-        <v>462.9421322372</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.9421322372</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="39">
@@ -7230,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7239,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1113.00182921349</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C40" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D40" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E40" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F40" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G40" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H40" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M40" t="n">
-        <v>509.954387939391</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N40" t="n">
-        <v>930.0072868842942</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O40" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U40" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V40" t="n">
-        <v>1229.568731954216</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W40" t="n">
-        <v>1229.568731954216</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X40" t="n">
-        <v>1229.568731954216</v>
+        <v>1292.550306711827</v>
       </c>
       <c r="Y40" t="n">
-        <v>1229.568731954216</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>435.7582893512044</v>
+        <v>1011.661556912526</v>
       </c>
       <c r="C41" t="n">
-        <v>435.7582893512044</v>
+        <v>1011.661556912526</v>
       </c>
       <c r="D41" t="n">
-        <v>435.7582893512044</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="E41" t="n">
-        <v>435.7582893512044</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7412,22 +7414,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q41" t="n">
         <v>1528.02936532736</v>
@@ -7442,19 +7444,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V41" t="n">
-        <v>1686.055777845768</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W41" t="n">
-        <v>1281.200323256802</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="X41" t="n">
-        <v>862.0578598361122</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="Y41" t="n">
-        <v>862.0578598361122</v>
+        <v>1437.961127397434</v>
       </c>
     </row>
     <row r="42">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.8381257054811</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C43" t="n">
-        <v>187.8381257054811</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D43" t="n">
-        <v>187.8381257054811</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E43" t="n">
-        <v>187.8381257054811</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="F43" t="n">
-        <v>187.8381257054811</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>187.8381257054811</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N43" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U43" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V43" t="n">
-        <v>705.2562847857771</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W43" t="n">
-        <v>433.2298803720686</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X43" t="n">
-        <v>187.8381257054811</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.8381257054811</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760968</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
   </sheetData>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K21" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L21" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P23" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L24" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M25" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9954,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10033,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10273,16 +10275,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10349,7 +10351,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10428,13 +10430,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10510,22 +10512,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N35" t="n">
+      <c r="Q35" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10665,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10747,7 +10749,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>424.2958575201044</v>
@@ -10756,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>58.38468441396117</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M43" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N43" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11306,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.60968125113078</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>114.5151883935649</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -24029,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24181,13 +24183,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>11.25323832560906</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>122.6735968424643</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24209,22 +24211,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>392.4237891023896</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>190.5886512596816</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24452,13 +24454,13 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>22.95695953404089</v>
       </c>
       <c r="H26" t="n">
-        <v>284.1546745534039</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24503,7 +24505,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>122.6735968424642</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -24658,16 +24660,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>77.72537188899128</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24692,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>18.62318932011459</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -24898,10 +24900,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>202.5761333493843</v>
       </c>
       <c r="X31" t="n">
-        <v>73.35755156304614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>220.8143995927684</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>354.1250124085991</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>15.50109041183126</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>158.8453978593303</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>293.6123564188296</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25163,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>64.2887560326506</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.97097057983852</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25403,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>95.21078533365016</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>349.8210661141235</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>149.5195640544053</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>284.5825859073441</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25684,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>347.9744048532091</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25795,16 +25797,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>68.87734684739507</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>73.92098976676661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>8.972383275540437</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26080,16 +26082,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>137.4534095211668</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372871.3058769229</v>
+        <v>372871.3058769228</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372871.3058769229</v>
+        <v>372871.3058769228</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372871.3058769228</v>
+        <v>372871.3058769229</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>372871.3058769229</v>
       </c>
     </row>
   </sheetData>
@@ -26329,13 +26331,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60101.16878103675</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="I2" t="n">
-        <v>60101.16878103677</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="J2" t="n">
-        <v>60101.16878103677</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="K2" t="n">
         <v>60101.16878103677</v>
@@ -26344,16 +26346,16 @@
         <v>60101.16878103676</v>
       </c>
       <c r="M2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103678</v>
       </c>
       <c r="N2" t="n">
-        <v>60101.16878103677</v>
+        <v>60101.16878103675</v>
       </c>
       <c r="O2" t="n">
         <v>60101.16878103676</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>60101.16878103677</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>100292.5090254571</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>12632.2219864234</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>12632.2219864234</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26537,31 +26539,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-92807.08236425083</v>
+        <v>-92807.08236425082</v>
       </c>
       <c r="I6" t="n">
         <v>21671.75865739102</v>
       </c>
       <c r="J6" t="n">
-        <v>21671.75865739103</v>
+        <v>21671.75865739102</v>
       </c>
       <c r="K6" t="n">
-        <v>21671.75865739103</v>
+        <v>21671.75865739102</v>
       </c>
       <c r="L6" t="n">
         <v>21671.75865739102</v>
       </c>
       <c r="M6" t="n">
-        <v>21671.75865739102</v>
+        <v>21671.75865739104</v>
       </c>
       <c r="N6" t="n">
-        <v>21671.75865739102</v>
+        <v>21671.75865739101</v>
       </c>
       <c r="O6" t="n">
         <v>21671.75865739102</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-78620.7503680661</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K21" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L21" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P23" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L24" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M25" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36674,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36753,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36844,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36993,16 +36995,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37069,7 +37071,7 @@
         <v>236.2898988798406</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37148,13 +37150,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37230,22 +37232,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N35" t="n">
+      <c r="Q35" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37385,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37467,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>424.2958575201044</v>
@@ -37476,7 +37478,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37552,13 +37554,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>58.38468441396117</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37792,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M43" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N43" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,13 +38189,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84515.89161594129</v>
+        <v>-93804.03858195792</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29520662.93214757</v>
+        <v>28907448.27261246</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14696419.30559703</v>
+        <v>14095407.61778666</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2278728.634746236</v>
+        <v>2585201.668379236</v>
       </c>
     </row>
     <row r="11">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>138.3429583246072</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>104.3987087711944</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>378.3480422637228</v>
       </c>
       <c r="C20" t="n">
-        <v>319.245859694846</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>124.4145853753908</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>146.6325435271071</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2323,22 +2323,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>31.16496619249474</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>332.863833045589</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>52.83200069764771</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>204.2341505020642</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>374.4268935289278</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>76.89989007297126</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>344.3112028910674</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>155.8532364480161</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2958,10 +2958,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>16.69419926248047</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>66.73000702018707</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3091,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>388.8240912665597</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>174.399342119966</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>57.41114660941293</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>155.4406149688847</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>99.64660619178001</v>
+        <v>26.48195270326388</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>104.8445209953894</v>
       </c>
       <c r="X38" t="n">
-        <v>65.1299726723589</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>262.9959594202062</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.62590992462751</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>320.8222454140401</v>
       </c>
       <c r="D41" t="n">
-        <v>146.9681010699558</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>19.57530746287691</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>267.6156636911013</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>388.4114697874283</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>86.87080051596702</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>105.4844275987548</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>477.8366140998854</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>305.2749025831103</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.396909784633</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>139.396909784633</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>477.8366140998854</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>645.9611778795814</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C20" t="n">
-        <v>323.4906125312521</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="D20" t="n">
         <v>323.4906125312521</v>
@@ -5752,19 +5752,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W20" t="n">
-        <v>1072.260748364489</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X20" t="n">
-        <v>1072.260748364489</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y20" t="n">
-        <v>1072.260748364489</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="L21" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="M21" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N21" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O21" t="n">
         <v>739.9048540962709</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>884.4397056785397</v>
+        <v>678.6417362648706</v>
       </c>
       <c r="C22" t="n">
-        <v>711.8779941617646</v>
+        <v>506.0800247480955</v>
       </c>
       <c r="D22" t="n">
-        <v>546.0000013632873</v>
+        <v>506.0800247480955</v>
       </c>
       <c r="E22" t="n">
-        <v>376.2419976140245</v>
+        <v>336.3220209988328</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5349435757807</v>
+        <v>159.614966960589</v>
       </c>
       <c r="G22" t="n">
         <v>33.94366860160834</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>1697.183430080417</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V22" t="n">
-        <v>1697.183430080417</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W22" t="n">
-        <v>1549.069749750006</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X22" t="n">
-        <v>1303.677995083419</v>
+        <v>906.0614069507624</v>
       </c>
       <c r="Y22" t="n">
-        <v>1076.258324397527</v>
+        <v>678.6417362648706</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1613.531556264254</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C23" t="n">
-        <v>1184.949882001523</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D23" t="n">
-        <v>756.3682077387909</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E23" t="n">
-        <v>756.3682077387909</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F23" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5992,10 +5992,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M23" t="n">
         <v>1107.976466382457</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V23" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W23" t="n">
-        <v>1613.531556264254</v>
+        <v>881.6678062850293</v>
       </c>
       <c r="X23" t="n">
-        <v>1613.531556264254</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y23" t="n">
-        <v>1613.531556264254</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6071,19 +6071,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.5053801183834</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
         <v>33.94366860160834</v>
@@ -6153,13 +6153,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>761.43086230084</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M25" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N25" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1463.158582813435</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U25" t="n">
-        <v>1184.72558206654</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V25" t="n">
-        <v>897.7700739369707</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W25" t="n">
-        <v>625.7436695232623</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="X25" t="n">
-        <v>625.7436695232623</v>
+        <v>774.6444558765734</v>
       </c>
       <c r="Y25" t="n">
-        <v>398.3239988373705</v>
+        <v>568.3473341573166</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.601755817686</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.601755817686</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="E26" t="n">
-        <v>840.020081554954</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="F26" t="n">
-        <v>412.1526519641617</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="G26" t="n">
         <v>33.94366860160834</v>
@@ -6226,19 +6226,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6256,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1113.00182921349</v>
+        <v>792.3583585686417</v>
       </c>
       <c r="C28" t="n">
-        <v>940.4401176967148</v>
+        <v>619.7966470518667</v>
       </c>
       <c r="D28" t="n">
-        <v>774.5621248982375</v>
+        <v>453.9186542533894</v>
       </c>
       <c r="E28" t="n">
-        <v>604.8041211489747</v>
+        <v>453.9186542533894</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>277.2116002151456</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>111.6203252409733</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6426,10 +6426,10 @@
         <v>1229.568731954216</v>
       </c>
       <c r="X28" t="n">
-        <v>1229.568731954216</v>
+        <v>984.1769772876289</v>
       </c>
       <c r="Y28" t="n">
-        <v>1229.568731954216</v>
+        <v>984.1769772876289</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.4716545351282</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>191.371180165261</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6466,25 +6466,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6502,13 +6502,13 @@
         <v>1477.116202953456</v>
       </c>
       <c r="W29" t="n">
-        <v>1072.260748364489</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X29" t="n">
-        <v>1072.260748364489</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y29" t="n">
-        <v>1072.260748364489</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>943.243825464227</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="C31" t="n">
-        <v>770.682113947452</v>
+        <v>691.9359419710053</v>
       </c>
       <c r="D31" t="n">
-        <v>604.8041211489747</v>
+        <v>526.057949172528</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>356.2999454232652</v>
       </c>
       <c r="F31" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6630,10 +6630,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6654,19 +6654,19 @@
         <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.886162364244</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V31" t="n">
-        <v>1429.886162364244</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W31" t="n">
-        <v>1362.482114869106</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X31" t="n">
-        <v>1362.482114869106</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y31" t="n">
-        <v>1135.062444183214</v>
+        <v>864.4976534877803</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C32" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D32" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E32" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F32" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G32" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6700,19 +6700,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
         <v>687.9235674375537</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U32" t="n">
-        <v>1134.24202645431</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V32" t="n">
-        <v>771.6250763881362</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W32" t="n">
-        <v>724.4716545351282</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X32" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y32" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>796.3926008656205</v>
+        <v>707.7326516402958</v>
       </c>
       <c r="C34" t="n">
-        <v>623.8308893488454</v>
+        <v>535.1709401235207</v>
       </c>
       <c r="D34" t="n">
-        <v>457.9528965503681</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E34" t="n">
-        <v>288.1948928011053</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F34" t="n">
-        <v>288.1948928011053</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
@@ -6867,43 +6867,43 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>930.0072868842942</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>930.0072868842942</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U34" t="n">
-        <v>1259.509060631519</v>
+        <v>1458.533182902561</v>
       </c>
       <c r="V34" t="n">
-        <v>972.5535525019498</v>
+        <v>1171.577674772991</v>
       </c>
       <c r="W34" t="n">
-        <v>972.5535525019498</v>
+        <v>899.5512703592829</v>
       </c>
       <c r="X34" t="n">
-        <v>972.5535525019498</v>
+        <v>899.5512703592829</v>
       </c>
       <c r="Y34" t="n">
-        <v>972.5535525019498</v>
+        <v>899.5512703592829</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>751.6554974211238</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C35" t="n">
-        <v>323.0738231583921</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0738231583921</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E35" t="n">
-        <v>323.0738231583921</v>
+        <v>191.371180165261</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>771.6250763881362</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>751.6554974211238</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X35" t="n">
-        <v>751.6554974211238</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y35" t="n">
-        <v>751.6554974211238</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7019,19 +7019,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.7439765407341</v>
+        <v>745.5978778793813</v>
       </c>
       <c r="C37" t="n">
-        <v>705.7439765407341</v>
+        <v>573.0361663626062</v>
       </c>
       <c r="D37" t="n">
-        <v>539.8659837422568</v>
+        <v>407.1581735641289</v>
       </c>
       <c r="E37" t="n">
-        <v>539.8659837422568</v>
+        <v>237.4001698148662</v>
       </c>
       <c r="F37" t="n">
-        <v>363.1589297040131</v>
+        <v>60.69311577662236</v>
       </c>
       <c r="G37" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L37" t="n">
-        <v>395.2818083374338</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M37" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N37" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O37" t="n">
         <v>1181.483761245743</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U37" t="n">
-        <v>1238.091239336891</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V37" t="n">
-        <v>951.1357312073217</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W37" t="n">
-        <v>951.1357312073217</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X37" t="n">
-        <v>705.7439765407341</v>
+        <v>1164.83616728426</v>
       </c>
       <c r="Y37" t="n">
-        <v>705.7439765407341</v>
+        <v>937.4164965983684</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.9231742410761</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7174,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L38" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M38" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N38" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7204,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1334.566480014244</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W38" t="n">
-        <v>929.7110254252771</v>
+        <v>749.3733936432999</v>
       </c>
       <c r="X38" t="n">
-        <v>863.9231742410761</v>
+        <v>749.3733936432999</v>
       </c>
       <c r="Y38" t="n">
-        <v>863.9231742410761</v>
+        <v>749.3733936432999</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,34 +7241,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I39" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J39" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K39" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L39" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M39" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O39" t="n">
-        <v>1159.957753041174</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1024.341879988165</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C40" t="n">
-        <v>851.7801684713901</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D40" t="n">
-        <v>685.9021756729128</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H40" t="n">
         <v>33.94366860160834</v>
@@ -7338,13 +7338,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N40" t="n">
-        <v>815.3347072823371</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7356,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.942061378414</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="W40" t="n">
-        <v>1537.942061378414</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="X40" t="n">
-        <v>1292.550306711827</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y40" t="n">
-        <v>1216.160498707152</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1011.661556912526</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C41" t="n">
-        <v>1011.661556912526</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2089295691367</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E41" t="n">
-        <v>863.2089295691367</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F41" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7414,22 +7414,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P41" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q41" t="n">
         <v>1528.02936532736</v>
@@ -7441,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U41" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V41" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W41" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X41" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y41" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7496,16 +7496,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O42" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.0776450162207</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C43" t="n">
-        <v>141.0776450162207</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D43" t="n">
-        <v>141.0776450162207</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0776450162207</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
         <v>33.94366860160834</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="V43" t="n">
-        <v>885.9154747824084</v>
+        <v>1410.113124522955</v>
       </c>
       <c r="W43" t="n">
-        <v>613.8890703687</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="X43" t="n">
-        <v>368.4973157021125</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.0776450162207</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>855.2769502042993</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C44" t="n">
-        <v>426.6952759415676</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D44" t="n">
-        <v>426.6952759415676</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6952759415676</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F44" t="n">
-        <v>426.6952759415676</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7651,22 +7651,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M44" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N44" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q44" t="n">
         <v>1528.02936532736</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V44" t="n">
-        <v>855.2769502042993</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W44" t="n">
-        <v>855.2769502042993</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X44" t="n">
-        <v>855.2769502042993</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y44" t="n">
-        <v>855.2769502042993</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
         <v>161.0644105192121</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>884.4397056785397</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C46" t="n">
-        <v>711.8779941617646</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D46" t="n">
-        <v>546.0000013632873</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
         <v>33.94366860160834</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>1697.183430080417</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>1410.227921950848</v>
+        <v>1063.704878267888</v>
       </c>
       <c r="W46" t="n">
-        <v>1410.227921950848</v>
+        <v>791.6784738541797</v>
       </c>
       <c r="X46" t="n">
-        <v>1303.677995083419</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="Y46" t="n">
-        <v>1076.258324397527</v>
+        <v>546.2867191875922</v>
       </c>
     </row>
   </sheetData>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>237.6484237362512</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9640,13 +9640,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9801,16 +9801,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>369.8475292559658</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9959,7 +9959,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10044,10 +10044,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10114,7 +10114,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10135,7 +10135,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K32" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -10515,19 +10515,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10986,16 +10986,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11062,10 +11062,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="P41" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11144,19 +11144,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11299,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>262.4639417184699</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23892,16 +23892,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>70.54127472666696</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -23958,7 +23958,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>43.6885325163359</v>
       </c>
       <c r="C20" t="n">
-        <v>114.5151883935649</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.52077684903979</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>122.6735968424643</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24211,22 +24211,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>392.4237891023896</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>67.94306699748796</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>190.5886512596816</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>20.91132347696859</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>22.95695953404089</v>
+        <v>8.559761796409077</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24496,13 +24496,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>61.60326249355796</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.72537188899128</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>267.7355188468682</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24742,7 +24742,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>158.2457842353809</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>202.5761333493843</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,10 +24931,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>354.1250124085991</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>26.12694751992274</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.50109041183126</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>218.2375241300128</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -25159,22 +25159,22 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>268.1481403259996</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>64.2887560326506</v>
+        <v>137.4534095211667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25444,19 +25444,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>295.9623790476876</v>
       </c>
       <c r="X38" t="n">
-        <v>349.8210661141235</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -25608,16 +25608,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>21.08999362806759</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5195640544053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>112.9388026743708</v>
       </c>
       <c r="D41" t="n">
-        <v>284.5825859073441</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25681,10 +25681,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>256.0733632765488</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8213337021865</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>8.972383275540437</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>197.2151525323068</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>137.4534095211668</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>372871.3058769229</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372871.3058769228</v>
+        <v>372871.3058769229</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372871.3058769228</v>
+        <v>372871.3058769229</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372871.3058769228</v>
+        <v>372871.3058769229</v>
       </c>
     </row>
     <row r="13">
@@ -26328,31 +26328,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="H2" t="n">
         <v>60101.16878103677</v>
       </c>
       <c r="I2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="K2" t="n">
         <v>60101.16878103676</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="M2" t="n">
         <v>60101.16878103676</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>60101.16878103676</v>
+      </c>
+      <c r="O2" t="n">
         <v>60101.16878103677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60101.16878103676</v>
-      </c>
-      <c r="M2" t="n">
-        <v>60101.16878103678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>60101.16878103675</v>
-      </c>
-      <c r="O2" t="n">
-        <v>60101.16878103676</v>
       </c>
       <c r="P2" t="n">
         <v>60101.16878103677</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>116293.1301083978</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>102107.2224080706</v>
       </c>
       <c r="P3" t="n">
-        <v>100292.5090254571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12632.2219864234</v>
       </c>
       <c r="H4" t="n">
         <v>12632.2219864234</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
         <v>25797.18813722234</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-95360.72806292246</v>
       </c>
       <c r="H6" t="n">
-        <v>-92807.08236425082</v>
+        <v>20932.40204547537</v>
       </c>
       <c r="I6" t="n">
-        <v>21671.75865739102</v>
+        <v>20932.40204547538</v>
       </c>
       <c r="J6" t="n">
-        <v>21671.75865739102</v>
+        <v>20932.40204547538</v>
       </c>
       <c r="K6" t="n">
-        <v>21671.75865739102</v>
+        <v>20932.40204547536</v>
       </c>
       <c r="L6" t="n">
-        <v>21671.75865739102</v>
+        <v>20932.40204547538</v>
       </c>
       <c r="M6" t="n">
-        <v>21671.75865739104</v>
+        <v>20932.40204547536</v>
       </c>
       <c r="N6" t="n">
-        <v>21671.75865739101</v>
+        <v>20932.40204547536</v>
       </c>
       <c r="O6" t="n">
-        <v>21671.75865739102</v>
+        <v>-81174.82036259527</v>
       </c>
       <c r="P6" t="n">
-        <v>-78620.7503680661</v>
+        <v>20932.40204547538</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
         <v>424.2958575201043</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>237.6484237362512</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O20" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36360,13 +36360,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36521,16 +36521,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>369.8475292559658</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36679,7 +36679,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36764,10 +36764,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36834,7 +36834,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36855,7 +36855,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36998,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K32" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
@@ -37235,19 +37235,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>117.6925219988882</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37706,16 +37706,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37782,10 +37782,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="P41" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="Q41" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697544</v>
@@ -37864,19 +37864,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
